--- a/templates/Hackathon_bioanalyzer.xlsx
+++ b/templates/Hackathon_bioanalyzer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\ARC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD41684-A5D0-4B14-8253-D8647CEF4A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD434C2B-0A39-4E02-9AB3-F077E2F1562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A22C094B-EDE5-4910-A95F-8098389FC57B}"/>
+    <workbookView xWindow="28680" yWindow="-11265" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{A22C094B-EDE5-4910-A95F-8098389FC57B}"/>
   </bookViews>
   <sheets>
     <sheet name="Fragment-or Bioanalyzer measure" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Source Name</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>fabian.haas@uni-marburg.de</t>
+  </si>
+  <si>
+    <t>MAdLand Fragmentanalyzer</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0770B4E5-CFCC-446B-8D4E-712D5A7D9179}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -961,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B663E89-2380-497F-9DB6-E7983D99A3C1}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/templates/Hackathon_bioanalyzer.xlsx
+++ b/templates/Hackathon_bioanalyzer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD434C2B-0A39-4E02-9AB3-F077E2F1562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB41FBF-3E33-4D00-A6A5-4FCEA8BA890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-11265" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{A22C094B-EDE5-4910-A95F-8098389FC57B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{A22C094B-EDE5-4910-A95F-8098389FC57B}"/>
   </bookViews>
   <sheets>
     <sheet name="Fragment-or Bioanalyzer measure" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,88 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={73862CB4-7BFE-476A-B506-29D38C9C1CB2}</author>
+    <author>tc={418AE240-F39E-4F5F-B5B6-DBA0C310F0A6}</author>
+    <author>tc={DCA5538F-1E69-45CE-816E-75E13DF6D5B1}</author>
+    <author>tc={049065B0-8AD0-44C5-B0A4-C58E7897F9AA}</author>
+    <author>tc={A42C30FA-52E0-4077-9B88-F2629605AB2F}</author>
+    <author>tc={01615BD7-556B-4F4E-A3E8-8146CB910619}</author>
+    <author>tc={03C772B8-E75B-4CF2-B309-68C4EE303874}</author>
+    <author>tc={4A5ABA0F-FC93-4AAA-922F-9B39155363CE}</author>
+    <author>tc={8B511D67-6AF0-4BBA-9A8B-A226E9E1E4B9}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{73862CB4-7BFE-476A-B506-29D38C9C1CB2}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=0fe0093a-fcf8-4c63-b0e3-d5172a2ba8fb</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{418AE240-F39E-4F5F-B5B6-DBA0C310F0A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{DCA5538F-1E69-45CE-816E-75E13DF6D5B1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{049065B0-8AD0-44C5-B0A4-C58E7897F9AA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{A42C30FA-52E0-4077-9B88-F2629605AB2F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{01615BD7-556B-4F4E-A3E8-8146CB910619}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{03C772B8-E75B-4CF2-B309-68C4EE303874}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{4A5ABA0F-FC93-4AAA-922F-9B39155363CE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{8B511D67-6AF0-4BBA-9A8B-A226E9E1E4B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Source Name</t>
   </si>
@@ -129,9 +201,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -189,18 +258,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>0fe0093a-fcf8-4c63-b0e3-d5172a2ba8fb</t>
   </si>
   <si>
@@ -232,6 +289,18 @@
   </si>
   <si>
     <t>MAdLand Fragmentanalyzer</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
@@ -243,7 +312,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;nanogram&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +335,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -420,8 +495,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -475,6 +550,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kevin F" id="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
   <person displayName="Fabian Haas" id="{17218367-943B-46A6-BA06-1E954DC4FA48}" userId="b3b1f7033b8df0eb" providerId="Windows Live"/>
 </personList>
 </file>
@@ -509,7 +585,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -811,6 +887,30 @@
   <threadedComment ref="A1" dT="2022-01-26T15:06:44.83" personId="{17218367-943B-46A6-BA06-1E954DC4FA48}" id="{FEC162C2-B61E-488D-BD33-5118E4B8D943}" parentId="{73862CB4-7BFE-476A-B506-29D38C9C1CB2}">
     <text>id=0fe0093a-fcf8-4c63-b0e3-d5172a2ba8fb</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" id="{418AE240-F39E-4F5F-B5B6-DBA0C310F0A6}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" id="{DCA5538F-1E69-45CE-816E-75E13DF6D5B1}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" id="{049065B0-8AD0-44C5-B0A4-C58E7897F9AA}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" id="{A42C30FA-52E0-4077-9B88-F2629605AB2F}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" id="{01615BD7-556B-4F4E-A3E8-8146CB910619}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" id="{03C772B8-E75B-4CF2-B309-68C4EE303874}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" id="{4A5ABA0F-FC93-4AAA-922F-9B39155363CE}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{C948ABEC-3B38-4DF6-A10E-2CC2F98687F8}" id="{8B511D67-6AF0-4BBA-9A8B-A226E9E1E4B9}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -853,7 +953,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -962,13 +1062,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B663E89-2380-497F-9DB6-E7983D99A3C1}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -979,7 +1079,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,7 +1087,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1003,42 +1103,42 @@
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1047,75 +1147,78 @@
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>55</v>
+      <c r="B17" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1137,37 +1240,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="10"/>
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="12"/>
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{41EE1E0F-C6B4-454B-8122-ED8A6094F4FA}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{41EE1E0F-C6B4-454B-8122-ED8A6094F4FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
